--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt6</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt6</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.302521</v>
       </c>
       <c r="I2">
-        <v>0.1509388493121159</v>
+        <v>0.5164422077268048</v>
       </c>
       <c r="J2">
-        <v>0.1509388493121159</v>
+        <v>0.5164422077268047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N2">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q2">
-        <v>0.1312052064394444</v>
+        <v>0.1132758623996667</v>
       </c>
       <c r="R2">
-        <v>1.180846857955</v>
+        <v>1.019482761597</v>
       </c>
       <c r="S2">
-        <v>0.008767412914389689</v>
+        <v>0.0260993701665262</v>
       </c>
       <c r="T2">
-        <v>0.008767412914389689</v>
+        <v>0.02609937016652619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.302521</v>
       </c>
       <c r="I3">
-        <v>0.1509388493121159</v>
+        <v>0.5164422077268048</v>
       </c>
       <c r="J3">
-        <v>0.1509388493121159</v>
+        <v>0.5164422077268047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q3">
         <v>1.130183027429555</v>
@@ -635,10 +635,10 @@
         <v>10.171647246866</v>
       </c>
       <c r="S3">
-        <v>0.0755212505601533</v>
+        <v>0.2604002703129806</v>
       </c>
       <c r="T3">
-        <v>0.07552125056015331</v>
+        <v>0.2604002703129806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.302521</v>
       </c>
       <c r="I4">
-        <v>0.1509388493121159</v>
+        <v>0.5164422077268048</v>
       </c>
       <c r="J4">
-        <v>0.1509388493121159</v>
+        <v>0.5164422077268047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N4">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q4">
-        <v>0.6094717141626668</v>
+        <v>0.5000289609002223</v>
       </c>
       <c r="R4">
-        <v>5.485245427464001</v>
+        <v>4.500260648102</v>
       </c>
       <c r="S4">
-        <v>0.04072620532913978</v>
+        <v>0.1152093717766015</v>
       </c>
       <c r="T4">
-        <v>0.04072620532913978</v>
+        <v>0.1152093717766015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.302521</v>
       </c>
       <c r="I5">
-        <v>0.1509388493121159</v>
+        <v>0.5164422077268048</v>
       </c>
       <c r="J5">
-        <v>0.1509388493121159</v>
+        <v>0.5164422077268047</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N5">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q5">
-        <v>0.3879549472066666</v>
+        <v>0.497962271882</v>
       </c>
       <c r="R5">
-        <v>3.49159452486</v>
+        <v>4.481660446938</v>
       </c>
       <c r="S5">
-        <v>0.02592398050843311</v>
+        <v>0.1147331954706965</v>
       </c>
       <c r="T5">
-        <v>0.02592398050843311</v>
+        <v>0.1147331954706965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5132853333333333</v>
+        <v>0.09441933333333334</v>
       </c>
       <c r="H6">
-        <v>1.539856</v>
+        <v>0.283258</v>
       </c>
       <c r="I6">
-        <v>0.768290772364092</v>
+        <v>0.4835577922731952</v>
       </c>
       <c r="J6">
-        <v>0.7682907723640922</v>
+        <v>0.4835577922731952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N6">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O6">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P6">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q6">
-        <v>0.6678449574311109</v>
+        <v>0.1060630311006667</v>
       </c>
       <c r="R6">
-        <v>6.010604616879998</v>
+        <v>0.9545672799060001</v>
       </c>
       <c r="S6">
-        <v>0.04462683047028289</v>
+        <v>0.02443749489995695</v>
       </c>
       <c r="T6">
-        <v>0.04462683047028289</v>
+        <v>0.02443749489995695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5132853333333333</v>
+        <v>0.09441933333333334</v>
       </c>
       <c r="H7">
-        <v>1.539856</v>
+        <v>0.283258</v>
       </c>
       <c r="I7">
-        <v>0.768290772364092</v>
+        <v>0.4835577922731952</v>
       </c>
       <c r="J7">
-        <v>0.7682907723640922</v>
+        <v>0.4835577922731952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>33.622946</v>
       </c>
       <c r="O7">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P7">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q7">
-        <v>5.752721681752887</v>
+        <v>1.058218715340889</v>
       </c>
       <c r="R7">
-        <v>51.77449513577599</v>
+        <v>9.523968438068</v>
       </c>
       <c r="S7">
-        <v>0.3844091841642577</v>
+        <v>0.2438193043402417</v>
       </c>
       <c r="T7">
-        <v>0.3844091841642577</v>
+        <v>0.2438193043402417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5132853333333333</v>
+        <v>0.09441933333333334</v>
       </c>
       <c r="H8">
-        <v>1.539856</v>
+        <v>0.283258</v>
       </c>
       <c r="I8">
-        <v>0.768290772364092</v>
+        <v>0.4835577922731952</v>
       </c>
       <c r="J8">
-        <v>0.7682907723640922</v>
+        <v>0.4835577922731952</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N8">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O8">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P8">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q8">
-        <v>3.102259598122667</v>
+        <v>0.4681896575995557</v>
       </c>
       <c r="R8">
-        <v>27.920336383104</v>
+        <v>4.213706918396</v>
       </c>
       <c r="S8">
-        <v>0.2072996308795352</v>
+        <v>0.1078734244257311</v>
       </c>
       <c r="T8">
-        <v>0.2072996308795352</v>
+        <v>0.1078734244257311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5132853333333333</v>
+        <v>0.09441933333333334</v>
       </c>
       <c r="H9">
-        <v>1.539856</v>
+        <v>0.283258</v>
       </c>
       <c r="I9">
-        <v>0.768290772364092</v>
+        <v>0.4835577922731952</v>
       </c>
       <c r="J9">
-        <v>0.7682907723640922</v>
+        <v>0.4835577922731952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N9">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O9">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P9">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q9">
-        <v>1.974721600106667</v>
+        <v>0.4662545648360001</v>
       </c>
       <c r="R9">
-        <v>17.77249440096</v>
+        <v>4.196291083524001</v>
       </c>
       <c r="S9">
-        <v>0.1319551268500163</v>
+        <v>0.1074275686072655</v>
       </c>
       <c r="T9">
-        <v>0.1319551268500163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.05396166666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.161885</v>
-      </c>
-      <c r="I10">
-        <v>0.08077037832379201</v>
-      </c>
-      <c r="J10">
-        <v>0.08077037832379201</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.301118333333333</v>
-      </c>
-      <c r="N10">
-        <v>3.903354999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.05808586029604725</v>
-      </c>
-      <c r="P10">
-        <v>0.05808586029604724</v>
-      </c>
-      <c r="Q10">
-        <v>0.07021051379722221</v>
-      </c>
-      <c r="R10">
-        <v>0.6318946241749999</v>
-      </c>
-      <c r="S10">
-        <v>0.004691616911374665</v>
-      </c>
-      <c r="T10">
-        <v>0.004691616911374665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.05396166666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.161885</v>
-      </c>
-      <c r="I11">
-        <v>0.08077037832379201</v>
-      </c>
-      <c r="J11">
-        <v>0.08077037832379201</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>11.20764866666667</v>
-      </c>
-      <c r="N11">
-        <v>33.622946</v>
-      </c>
-      <c r="O11">
-        <v>0.5003433569576788</v>
-      </c>
-      <c r="P11">
-        <v>0.5003433569576788</v>
-      </c>
-      <c r="Q11">
-        <v>0.6047834014677778</v>
-      </c>
-      <c r="R11">
-        <v>5.44305061321</v>
-      </c>
-      <c r="S11">
-        <v>0.04041292223326783</v>
-      </c>
-      <c r="T11">
-        <v>0.04041292223326783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.05396166666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.161885</v>
-      </c>
-      <c r="I12">
-        <v>0.08077037832379201</v>
-      </c>
-      <c r="J12">
-        <v>0.08077037832379201</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>6.043928000000001</v>
-      </c>
-      <c r="N12">
-        <v>18.131784</v>
-      </c>
-      <c r="O12">
-        <v>0.2698192381533591</v>
-      </c>
-      <c r="P12">
-        <v>0.2698192381533591</v>
-      </c>
-      <c r="Q12">
-        <v>0.3261404280933334</v>
-      </c>
-      <c r="R12">
-        <v>2.93526385284</v>
-      </c>
-      <c r="S12">
-        <v>0.02179340194468415</v>
-      </c>
-      <c r="T12">
-        <v>0.02179340194468415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.05396166666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.161885</v>
-      </c>
-      <c r="I13">
-        <v>0.08077037832379201</v>
-      </c>
-      <c r="J13">
-        <v>0.08077037832379201</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.84722</v>
-      </c>
-      <c r="N13">
-        <v>11.54166</v>
-      </c>
-      <c r="O13">
-        <v>0.1717515445929148</v>
-      </c>
-      <c r="P13">
-        <v>0.1717515445929147</v>
-      </c>
-      <c r="Q13">
-        <v>0.2076024032333333</v>
-      </c>
-      <c r="R13">
-        <v>1.8684216291</v>
-      </c>
-      <c r="S13">
-        <v>0.01387243723446536</v>
-      </c>
-      <c r="T13">
-        <v>0.01387243723446536</v>
+        <v>0.1074275686072655</v>
       </c>
     </row>
   </sheetData>
